--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Google Drive\Docs\VSCode\Work\Teaching\Flashcard Generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\flashcard-ppt-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A78B2B7-BDAA-4A4A-B814-078B9F2EA043}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531279A-B138-4600-B915-611FA5589BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="6630" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="10620" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
